--- a/14 bus data.xlsx
+++ b/14 bus data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimal power flow CENACE University\Voltage stability optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Orlando RB\Documents\GitHub\GETPRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1458A427-CFD7-486A-9899-848062A40E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09D6AC-E693-4A06-A415-0BFB22C0B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t># Bus</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>MVA Limit (P.u)</t>
+  </si>
+  <si>
+    <t>Smax pu</t>
   </si>
 </sst>
 </file>
@@ -528,12 +531,12 @@
       <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -597,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -629,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -693,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -725,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -757,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -789,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -853,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -885,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -917,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -949,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -981,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="4"/>
     </row>
   </sheetData>
@@ -1029,9 +1032,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1066,15 +1069,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A186F3-D00D-4D69-8273-B5C10E776E95}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,8 +1096,11 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1113,8 +1119,11 @@
       <c r="F2">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1133,8 +1142,11 @@
       <c r="F3">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1165,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1173,8 +1188,11 @@
       <c r="F5">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1192,6 +1210,9 @@
       </c>
       <c r="F6">
         <v>-0.06</v>
+      </c>
+      <c r="G6">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -1203,16 +1224,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C537A-263F-4B76-B0ED-C936823C5460}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.05859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1290,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1394,7 +1416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1420,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1446,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1498,7 +1520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>7</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -1576,7 +1598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -1602,7 +1624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>6</v>
       </c>
@@ -1628,7 +1650,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>9</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>10</v>
       </c>
@@ -1706,7 +1728,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>13</v>
       </c>
